--- a/data/excel/编号字典.xlsx
+++ b/data/excel/编号字典.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiwei Deng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gitee\vscode_projects\AI4ED\NationalSpider\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FD42BF-1CD8-443D-A79F-DC62E5831C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B31D36-5534-4BC4-A7AD-948CD2A03F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$206</definedName>
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="356">
   <si>
     <t>小学</t>
   </si>
@@ -903,9 +903,6 @@
     <t>5012-+北师大版</t>
   </si>
   <si>
-    <t>5412-+川教版（三起）</t>
-  </si>
-  <si>
     <t>5239-+大象版</t>
   </si>
   <si>
@@ -924,117 +921,54 @@
     <t>5039-+华东师大版</t>
   </si>
   <si>
-    <t>5354-+华中师大版（三起）</t>
-  </si>
-  <si>
     <t>5257-+济南版</t>
   </si>
   <si>
-    <t>5320-+冀教版（2012）</t>
-  </si>
-  <si>
     <t>5277-+冀教版（三起）</t>
   </si>
   <si>
     <t>5297-+冀教版（一起）</t>
   </si>
   <si>
-    <t>5283-+冀美版（2012）</t>
-  </si>
-  <si>
     <t>5365-+冀人版</t>
   </si>
   <si>
-    <t>5261-+冀少版（2012）</t>
-  </si>
-  <si>
     <t>5256-+教科版</t>
   </si>
   <si>
     <t>5266-+教科版（EEC）</t>
   </si>
   <si>
-    <t>5323-+接力版</t>
-  </si>
-  <si>
     <t>5242-+晋教版</t>
   </si>
   <si>
     <t>5231-+科普版</t>
   </si>
   <si>
-    <t>5264-+科粤版（2012）</t>
-  </si>
-  <si>
-    <t>5237-+辽海版（2012）</t>
-  </si>
-  <si>
-    <t>5204-+岭南版</t>
-  </si>
-  <si>
     <t>5216-+鲁教版</t>
   </si>
   <si>
     <t>5324-+闽教版</t>
   </si>
   <si>
-    <t>5315-+青岛版（2012）</t>
-  </si>
-  <si>
     <t>5308-+清华版</t>
   </si>
   <si>
-    <t>5018-+人教版2012</t>
-  </si>
-  <si>
-    <t>5291-+人美版（2012）</t>
-  </si>
-  <si>
-    <t>5286-+人音版（2012）</t>
-  </si>
-  <si>
-    <t>5253-+陕旅版（三起）</t>
-  </si>
-  <si>
-    <t>5400-+商务星球版</t>
-  </si>
-  <si>
     <t>5014-+苏教版</t>
   </si>
   <si>
-    <t>5331-+苏科版（2012）</t>
-  </si>
-  <si>
     <t>5282-+苏少版</t>
   </si>
   <si>
     <t>5021-+外研社版</t>
   </si>
   <si>
-    <t>5311-+外研版（三起）</t>
-  </si>
-  <si>
-    <t>5241-+外研版（一起）</t>
-  </si>
-  <si>
     <t>5346-+西泠版</t>
   </si>
   <si>
-    <t>5390-+湘教版（2012）</t>
-  </si>
-  <si>
     <t>5352-+湘科版</t>
   </si>
   <si>
-    <t>5378-+湘美版（2012）</t>
-  </si>
-  <si>
-    <t>5270-+湘少版（三起）</t>
-  </si>
-  <si>
-    <t>5265-+湘艺版（2012）</t>
-  </si>
-  <si>
     <t>5350-+新世纪英语</t>
   </si>
   <si>
@@ -1045,9 +979,6 @@
   </si>
   <si>
     <t>5281-+浙教版</t>
-  </si>
-  <si>
-    <t>5416-+浙美版（2012）</t>
   </si>
   <si>
     <t>5300-+中图版</t>
@@ -1168,7 +1099,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5250-+辽师大版（一起）</t>
+    <t>清华版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2991309-+人教版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1528,10 +1463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C206" sqref="C206"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1584,16 +1520,17 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
@@ -1706,7 +1643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1755,12 +1692,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1821,6 +1758,7 @@
         <v>208</v>
       </c>
     </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>40</v>
@@ -1855,7 +1793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>41</v>
       </c>
@@ -1863,7 +1801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
@@ -1871,12 +1809,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C30" t="s">
-        <v>289</v>
       </c>
       <c r="D30" s="4">
         <v>5412</v>
@@ -1893,7 +1828,7 @@
         <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D31" s="4">
         <v>5239</v>
@@ -1910,7 +1845,7 @@
         <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D32" s="4">
         <v>5295</v>
@@ -1922,7 +1857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>72</v>
       </c>
@@ -1935,7 +1870,7 @@
         <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D34" s="4">
         <v>5349</v>
@@ -1947,7 +1882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>108</v>
       </c>
@@ -1955,7 +1890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>89</v>
       </c>
@@ -1963,7 +1898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>47</v>
       </c>
@@ -1982,7 +1917,7 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D38" s="4">
         <v>5363</v>
@@ -1999,7 +1934,7 @@
         <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D39" s="4">
         <v>5411</v>
@@ -2011,7 +1946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>93</v>
       </c>
@@ -2019,7 +1954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>51</v>
       </c>
@@ -2027,7 +1962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>112</v>
       </c>
@@ -2035,7 +1970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>99</v>
       </c>
@@ -2043,7 +1978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>111</v>
       </c>
@@ -2051,7 +1986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>113</v>
       </c>
@@ -2064,7 +1999,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D46" s="4">
         <v>5039</v>
@@ -2076,7 +2011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>96</v>
       </c>
@@ -2084,12 +2019,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="C48" t="s">
-        <v>296</v>
       </c>
       <c r="D48" s="4">
         <v>5354</v>
@@ -2106,7 +2038,7 @@
         <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D49" s="4">
         <v>5257</v>
@@ -2118,12 +2050,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="C50" t="s">
-        <v>298</v>
+        <v>353</v>
       </c>
       <c r="D50" s="4">
         <v>5320</v>
@@ -2140,7 +2069,7 @@
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D51" s="4">
         <v>5277</v>
@@ -2157,7 +2086,7 @@
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D52" s="4">
         <v>5297</v>
@@ -2169,12 +2098,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C53" t="s">
-        <v>301</v>
       </c>
       <c r="D53" s="4">
         <v>5283</v>
@@ -2191,7 +2117,7 @@
         <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D54" s="4">
         <v>5365</v>
@@ -2203,12 +2129,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C55" t="s">
-        <v>303</v>
       </c>
       <c r="D55" s="4">
         <v>5261</v>
@@ -2225,7 +2148,7 @@
         <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D56" s="4">
         <v>5256</v>
@@ -2242,7 +2165,7 @@
         <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D57" s="4">
         <v>5266</v>
@@ -2254,7 +2177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>64</v>
       </c>
@@ -2262,13 +2185,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C59" t="s">
-        <v>306</v>
-      </c>
       <c r="D59" s="4">
         <v>5323</v>
       </c>
@@ -2279,7 +2199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>82</v>
       </c>
@@ -2292,7 +2212,7 @@
         <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D61" s="4">
         <v>5242</v>
@@ -2304,7 +2224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>95</v>
       </c>
@@ -2317,7 +2237,7 @@
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D63" s="4">
         <v>5231</v>
@@ -2329,7 +2249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>90</v>
       </c>
@@ -2337,13 +2257,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C65" t="s">
-        <v>309</v>
-      </c>
       <c r="D65" s="4">
         <v>5264</v>
       </c>
@@ -2354,13 +2271,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C66" t="s">
-        <v>310</v>
-      </c>
       <c r="D66" s="4">
         <v>5237</v>
       </c>
@@ -2371,13 +2285,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C67" t="s">
-        <v>377</v>
-      </c>
       <c r="D67" s="4">
         <v>5250</v>
       </c>
@@ -2388,12 +2299,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="C68" t="s">
-        <v>311</v>
       </c>
       <c r="D68" s="4">
         <v>5204</v>
@@ -2410,7 +2318,7 @@
         <v>102</v>
       </c>
       <c r="C69" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D69" s="4">
         <v>5216</v>
@@ -2422,7 +2330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>114</v>
       </c>
@@ -2432,7 +2340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>110</v>
       </c>
@@ -2445,7 +2353,7 @@
         <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D72" s="4">
         <v>5324</v>
@@ -2457,7 +2365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>48</v>
       </c>
@@ -2471,13 +2379,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C74" t="s">
-        <v>314</v>
-      </c>
       <c r="D74" s="4">
         <v>5315</v>
       </c>
@@ -2488,12 +2393,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>315</v>
+    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="6" t="s">
+        <v>354</v>
       </c>
       <c r="C75" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D75" s="4">
         <v>5308</v>
@@ -2505,7 +2410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>31</v>
       </c>
@@ -2518,7 +2423,7 @@
         <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="D77" s="4">
         <v>5018</v>
@@ -2530,7 +2435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>30</v>
       </c>
@@ -2538,7 +2443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>54</v>
       </c>
@@ -2546,7 +2451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>29</v>
       </c>
@@ -2554,7 +2459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>32</v>
       </c>
@@ -2562,7 +2467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>37</v>
       </c>
@@ -2570,13 +2475,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C83" t="s">
-        <v>317</v>
-      </c>
       <c r="D83" s="4">
         <v>5291</v>
       </c>
@@ -2587,7 +2489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>83</v>
       </c>
@@ -2595,7 +2497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>25</v>
       </c>
@@ -2603,13 +2505,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C86" t="s">
-        <v>318</v>
-      </c>
       <c r="D86" s="4">
         <v>5286</v>
       </c>
@@ -2620,7 +2519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>27</v>
       </c>
@@ -2628,7 +2527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>33</v>
       </c>
@@ -2636,13 +2535,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C89" t="s">
-        <v>319</v>
-      </c>
       <c r="D89" s="4">
         <v>5253</v>
       </c>
@@ -2653,12 +2549,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="C90" t="s">
-        <v>320</v>
       </c>
       <c r="D90" s="4">
         <v>5400</v>
@@ -2675,7 +2568,7 @@
         <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="D91" s="4">
         <v>5014</v>
@@ -2687,12 +2580,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C92" t="s">
-        <v>322</v>
       </c>
       <c r="D92" s="4">
         <v>5331</v>
@@ -2709,7 +2599,7 @@
         <v>39</v>
       </c>
       <c r="C93" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D93" s="4">
         <v>5282</v>
@@ -2721,7 +2611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>23</v>
       </c>
@@ -2734,7 +2624,7 @@
         <v>43</v>
       </c>
       <c r="C95" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D95" s="4">
         <v>5021</v>
@@ -2746,13 +2636,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C96" t="s">
-        <v>325</v>
-      </c>
       <c r="D96" s="4">
         <v>5311</v>
       </c>
@@ -2763,13 +2650,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C97" t="s">
-        <v>325</v>
-      </c>
       <c r="D97" s="4">
         <v>5311</v>
       </c>
@@ -2780,13 +2664,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C98" t="s">
-        <v>325</v>
-      </c>
       <c r="D98" s="4">
         <v>5311</v>
       </c>
@@ -2797,12 +2678,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C99" t="s">
-        <v>326</v>
       </c>
       <c r="D99" s="4">
         <v>5241</v>
@@ -2819,7 +2697,7 @@
         <v>92</v>
       </c>
       <c r="C100" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="D100" s="4">
         <v>5346</v>
@@ -2831,7 +2709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>52</v>
       </c>
@@ -2839,7 +2717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>79</v>
       </c>
@@ -2847,12 +2725,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C103" t="s">
-        <v>328</v>
       </c>
       <c r="D103" s="4">
         <v>5390</v>
@@ -2869,7 +2744,7 @@
         <v>76</v>
       </c>
       <c r="C104" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="D104" s="4">
         <v>5352</v>
@@ -2881,13 +2756,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C105" t="s">
-        <v>330</v>
-      </c>
       <c r="D105" s="4">
         <v>5378</v>
       </c>
@@ -2898,13 +2770,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C106" t="s">
-        <v>331</v>
-      </c>
       <c r="D106" s="4">
         <v>5270</v>
       </c>
@@ -2915,12 +2784,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C107" t="s">
-        <v>332</v>
       </c>
       <c r="D107" s="4">
         <v>5265</v>
@@ -2937,7 +2803,7 @@
         <v>50</v>
       </c>
       <c r="C108" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="D108" s="4">
         <v>5350</v>
@@ -2949,7 +2815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>45</v>
       </c>
@@ -2968,7 +2834,7 @@
         <v>46</v>
       </c>
       <c r="C110" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="D110" s="4">
         <v>5312</v>
@@ -2985,7 +2851,7 @@
         <v>94</v>
       </c>
       <c r="C111" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="D111" s="4">
         <v>5044</v>
@@ -2997,7 +2863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>77</v>
       </c>
@@ -3005,7 +2871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>75</v>
       </c>
@@ -3013,7 +2879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>61</v>
       </c>
@@ -3026,7 +2892,7 @@
         <v>98</v>
       </c>
       <c r="C115" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="D115" s="4">
         <v>5281</v>
@@ -3038,12 +2904,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="C116" t="s">
-        <v>337</v>
       </c>
       <c r="D116" s="4">
         <v>5416</v>
@@ -3060,7 +2923,7 @@
         <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D117" s="4">
         <v>5300</v>
@@ -3077,7 +2940,7 @@
         <v>105</v>
       </c>
       <c r="C118" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D118" s="4">
         <v>5300</v>
@@ -3094,7 +2957,7 @@
         <v>106</v>
       </c>
       <c r="C119" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D119" s="4">
         <v>5300</v>
@@ -3111,7 +2974,7 @@
         <v>69</v>
       </c>
       <c r="C120" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="D120" s="4">
         <v>5288</v>
@@ -3123,12 +2986,13 @@
         <v>10</v>
       </c>
     </row>
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>167</v>
       </c>
       <c r="C122" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="D122" s="4">
         <v>22034</v>
@@ -3142,7 +3006,7 @@
         <v>133</v>
       </c>
       <c r="C123" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="D123" s="4">
         <v>22021</v>
@@ -3156,7 +3020,7 @@
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="D124" s="4">
         <v>22022</v>
@@ -3170,7 +3034,7 @@
         <v>173</v>
       </c>
       <c r="C125" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="D125" s="4">
         <v>230466</v>
@@ -3184,7 +3048,7 @@
         <v>172</v>
       </c>
       <c r="C126" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="D126" s="4">
         <v>230467</v>
@@ -3198,7 +3062,7 @@
         <v>141</v>
       </c>
       <c r="C127" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="D127" s="4">
         <v>230465</v>
@@ -3207,12 +3071,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>139</v>
       </c>
@@ -3222,7 +3086,7 @@
         <v>196</v>
       </c>
       <c r="C130" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="D130" s="4">
         <v>230510</v>
@@ -3231,37 +3095,37 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>164</v>
       </c>
@@ -3271,7 +3135,7 @@
         <v>179</v>
       </c>
       <c r="C138" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="D138" s="4">
         <v>21131</v>
@@ -3285,7 +3149,7 @@
         <v>127</v>
       </c>
       <c r="C139" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="D139" s="4">
         <v>21021</v>
@@ -3299,7 +3163,7 @@
         <v>117</v>
       </c>
       <c r="C140" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="D140" s="4">
         <v>21022</v>
@@ -3308,17 +3172,17 @@
         <v>254</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>158</v>
       </c>
@@ -3328,7 +3192,7 @@
         <v>175</v>
       </c>
       <c r="C144" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="D144" s="4">
         <v>23021</v>
@@ -3342,7 +3206,7 @@
         <v>174</v>
       </c>
       <c r="C145" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="D145" s="4">
         <v>23022</v>
@@ -3351,112 +3215,112 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -3466,7 +3330,7 @@
         <v>135</v>
       </c>
       <c r="C168" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="D168" s="4">
         <v>22033</v>
@@ -3480,7 +3344,7 @@
         <v>134</v>
       </c>
       <c r="C169" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="D169" s="4">
         <v>22031</v>
@@ -3494,7 +3358,7 @@
         <v>124</v>
       </c>
       <c r="C170" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="D170" s="4">
         <v>22032</v>
@@ -3508,7 +3372,7 @@
         <v>183</v>
       </c>
       <c r="C171" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="D171" s="4">
         <v>21111</v>
@@ -3522,7 +3386,7 @@
         <v>131</v>
       </c>
       <c r="C172" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="D172" s="4">
         <v>21061</v>
@@ -3536,7 +3400,7 @@
         <v>121</v>
       </c>
       <c r="C173" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="D173" s="4">
         <v>21062</v>
@@ -3550,7 +3414,7 @@
         <v>168</v>
       </c>
       <c r="C174" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="D174" s="4">
         <v>22061</v>
@@ -3564,7 +3428,7 @@
         <v>132</v>
       </c>
       <c r="C175" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="D175" s="4">
         <v>22011</v>
@@ -3578,7 +3442,7 @@
         <v>122</v>
       </c>
       <c r="C176" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="D176" s="4">
         <v>22012</v>
@@ -3592,7 +3456,7 @@
         <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="D177" s="4">
         <v>21141</v>
@@ -3606,7 +3470,7 @@
         <v>128</v>
       </c>
       <c r="C178" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="D178" s="4">
         <v>21031</v>
@@ -3620,7 +3484,7 @@
         <v>118</v>
       </c>
       <c r="C179" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="D179" s="4">
         <v>21032</v>
@@ -3629,7 +3493,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>170</v>
       </c>
@@ -3639,7 +3503,7 @@
         <v>181</v>
       </c>
       <c r="C181" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="D181" s="4">
         <v>21151</v>
@@ -3653,7 +3517,7 @@
         <v>129</v>
       </c>
       <c r="C182" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="D182" s="4">
         <v>21041</v>
@@ -3667,7 +3531,7 @@
         <v>119</v>
       </c>
       <c r="C183" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="D183" s="4">
         <v>21042</v>
@@ -3681,7 +3545,7 @@
         <v>182</v>
       </c>
       <c r="C184" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="D184" s="4">
         <v>21101</v>
@@ -3695,7 +3559,7 @@
         <v>130</v>
       </c>
       <c r="C185" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="D185" s="4">
         <v>21051</v>
@@ -3709,7 +3573,7 @@
         <v>120</v>
       </c>
       <c r="C186" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D186" s="4">
         <v>21052</v>
@@ -3718,67 +3582,67 @@
         <v>268</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -3788,7 +3652,7 @@
         <v>178</v>
       </c>
       <c r="C200" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="D200" s="4">
         <v>21121</v>
@@ -3802,7 +3666,7 @@
         <v>126</v>
       </c>
       <c r="C201" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="D201" s="4">
         <v>21011</v>
@@ -3816,7 +3680,7 @@
         <v>116</v>
       </c>
       <c r="C202" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="D202" s="4">
         <v>21012</v>
@@ -3825,7 +3689,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>171</v>
       </c>
@@ -3835,7 +3699,7 @@
         <v>185</v>
       </c>
       <c r="C204" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="D204" s="4">
         <v>230537</v>
@@ -3849,7 +3713,7 @@
         <v>186</v>
       </c>
       <c r="C205" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="D205" s="4">
         <v>230538</v>
@@ -3863,7 +3727,7 @@
         <v>184</v>
       </c>
       <c r="C206" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="D206" s="4">
         <v>230536</v>
@@ -3873,6 +3737,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C206" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A122:A206">
     <sortCondition ref="A122:A206"/>
   </sortState>
